--- a/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
+++ b/REGULAR/ACCOUNTING/MIRANDA, MARIA LOIDA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="419">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1288,6 +1288,9 @@
   </si>
   <si>
     <t>UT(0-1-48)</t>
+  </si>
+  <si>
+    <t>10/13 , 11/3/2023</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1726,6 +1729,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2175,7 +2181,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2224,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2288,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2348,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2414,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2477,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2575,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2634,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2699,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2742,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2817,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +3003,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3069,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,7 +3127,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3193,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3249,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3318,7 +3324,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,7 +3367,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3433,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3483,7 +3489,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3587,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3644,7 +3650,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +3716,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K634" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K650" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4088,12 +4094,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K634"/>
+  <dimension ref="A2:K650"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A612" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A625" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C632" sqref="C632"/>
+      <selection pane="bottomLeft" activeCell="D638" sqref="D638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4260,7 +4266,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>125.45499999999993</v>
+        <v>122.70499999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4270,7 +4276,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.526000000000025</v>
+        <v>99.776000000000025</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18234,12 +18240,14 @@
         <v>45170</v>
       </c>
       <c r="B631" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C631" s="13">
         <v>1.25</v>
       </c>
-      <c r="D631" s="38"/>
+      <c r="D631" s="38">
+        <v>1</v>
+      </c>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
       <c r="G631" s="13">
@@ -18257,33 +18265,31 @@
       <c r="A632" s="39">
         <v>45200</v>
       </c>
-      <c r="B632" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C632" s="13"/>
+      <c r="B632" s="20"/>
+      <c r="C632" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D632" s="38"/>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H632" s="38">
-        <v>1</v>
-      </c>
+      <c r="G632" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H632" s="38"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="47">
-        <v>45227</v>
-      </c>
+      <c r="K632" s="47"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="39">
-        <v>45231</v>
-      </c>
-      <c r="B633" s="20"/>
+      <c r="A633" s="39"/>
+      <c r="B633" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C633" s="13"/>
-      <c r="D633" s="38"/>
+      <c r="D633" s="38">
+        <v>1</v>
+      </c>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
       <c r="G633" s="13" t="str">
@@ -18293,25 +18299,301 @@
       <c r="H633" s="38"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
+      <c r="K633" s="47">
+        <v>45208</v>
+      </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A634" s="39">
+      <c r="A634" s="39"/>
+      <c r="B634" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C634" s="13"/>
+      <c r="D634" s="38">
+        <v>2</v>
+      </c>
+      <c r="E634" s="9"/>
+      <c r="F634" s="20"/>
+      <c r="G634" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H634" s="38"/>
+      <c r="I634" s="9"/>
+      <c r="J634" s="11"/>
+      <c r="K634" s="47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B635" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C635" s="13"/>
+      <c r="D635" s="38"/>
+      <c r="E635" s="9"/>
+      <c r="F635" s="20"/>
+      <c r="G635" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H635" s="38">
+        <v>1</v>
+      </c>
+      <c r="I635" s="9"/>
+      <c r="J635" s="11"/>
+      <c r="K635" s="47">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" s="39">
         <v>45261</v>
       </c>
-      <c r="B634" s="15"/>
-      <c r="C634" s="40"/>
-      <c r="D634" s="41"/>
-      <c r="E634" s="51"/>
-      <c r="F634" s="15"/>
-      <c r="G634" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H634" s="41"/>
-      <c r="I634" s="51"/>
-      <c r="J634" s="12"/>
-      <c r="K634" s="15"/>
+      <c r="B636" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C636" s="40"/>
+      <c r="D636" s="41"/>
+      <c r="E636" s="51"/>
+      <c r="F636" s="15"/>
+      <c r="G636" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H636" s="41"/>
+      <c r="I636" s="51"/>
+      <c r="J636" s="12"/>
+      <c r="K636" s="48">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="39"/>
+      <c r="B637" s="20"/>
+      <c r="C637" s="13"/>
+      <c r="D637" s="38"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="20"/>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H637" s="38"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="20"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" s="39"/>
+      <c r="B638" s="20"/>
+      <c r="C638" s="13"/>
+      <c r="D638" s="38"/>
+      <c r="E638" s="9"/>
+      <c r="F638" s="20"/>
+      <c r="G638" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="38"/>
+      <c r="I638" s="9"/>
+      <c r="J638" s="11"/>
+      <c r="K638" s="20"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" s="39"/>
+      <c r="B639" s="20"/>
+      <c r="C639" s="13"/>
+      <c r="D639" s="38"/>
+      <c r="E639" s="9"/>
+      <c r="F639" s="20"/>
+      <c r="G639" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H639" s="38"/>
+      <c r="I639" s="9"/>
+      <c r="J639" s="11"/>
+      <c r="K639" s="20"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" s="39"/>
+      <c r="B640" s="20"/>
+      <c r="C640" s="13"/>
+      <c r="D640" s="38"/>
+      <c r="E640" s="9"/>
+      <c r="F640" s="20"/>
+      <c r="G640" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H640" s="38"/>
+      <c r="I640" s="9"/>
+      <c r="J640" s="11"/>
+      <c r="K640" s="20"/>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" s="39"/>
+      <c r="B641" s="20"/>
+      <c r="C641" s="13"/>
+      <c r="D641" s="38"/>
+      <c r="E641" s="9"/>
+      <c r="F641" s="20"/>
+      <c r="G641" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H641" s="38"/>
+      <c r="I641" s="9"/>
+      <c r="J641" s="11"/>
+      <c r="K641" s="20"/>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" s="39"/>
+      <c r="B642" s="20"/>
+      <c r="C642" s="13"/>
+      <c r="D642" s="38"/>
+      <c r="E642" s="9"/>
+      <c r="F642" s="20"/>
+      <c r="G642" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H642" s="38"/>
+      <c r="I642" s="9"/>
+      <c r="J642" s="11"/>
+      <c r="K642" s="20"/>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A643" s="39"/>
+      <c r="B643" s="20"/>
+      <c r="C643" s="13"/>
+      <c r="D643" s="38"/>
+      <c r="E643" s="9"/>
+      <c r="F643" s="20"/>
+      <c r="G643" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H643" s="38"/>
+      <c r="I643" s="9"/>
+      <c r="J643" s="11"/>
+      <c r="K643" s="20"/>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644" s="39"/>
+      <c r="B644" s="20"/>
+      <c r="C644" s="13"/>
+      <c r="D644" s="38"/>
+      <c r="E644" s="9"/>
+      <c r="F644" s="20"/>
+      <c r="G644" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H644" s="38"/>
+      <c r="I644" s="9"/>
+      <c r="J644" s="11"/>
+      <c r="K644" s="20"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645" s="39"/>
+      <c r="B645" s="20"/>
+      <c r="C645" s="13"/>
+      <c r="D645" s="38"/>
+      <c r="E645" s="9"/>
+      <c r="F645" s="20"/>
+      <c r="G645" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H645" s="38"/>
+      <c r="I645" s="9"/>
+      <c r="J645" s="11"/>
+      <c r="K645" s="20"/>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A646" s="39"/>
+      <c r="B646" s="20"/>
+      <c r="C646" s="13"/>
+      <c r="D646" s="38"/>
+      <c r="E646" s="9"/>
+      <c r="F646" s="20"/>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H646" s="38"/>
+      <c r="I646" s="9"/>
+      <c r="J646" s="11"/>
+      <c r="K646" s="20"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647" s="39"/>
+      <c r="B647" s="20"/>
+      <c r="C647" s="13"/>
+      <c r="D647" s="38"/>
+      <c r="E647" s="9"/>
+      <c r="F647" s="20"/>
+      <c r="G647" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H647" s="38"/>
+      <c r="I647" s="9"/>
+      <c r="J647" s="11"/>
+      <c r="K647" s="20"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" s="39"/>
+      <c r="B648" s="20"/>
+      <c r="C648" s="13"/>
+      <c r="D648" s="38"/>
+      <c r="E648" s="9"/>
+      <c r="F648" s="20"/>
+      <c r="G648" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H648" s="38"/>
+      <c r="I648" s="9"/>
+      <c r="J648" s="11"/>
+      <c r="K648" s="20"/>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A649" s="39"/>
+      <c r="B649" s="20"/>
+      <c r="C649" s="13"/>
+      <c r="D649" s="38"/>
+      <c r="E649" s="9"/>
+      <c r="F649" s="20"/>
+      <c r="G649" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H649" s="38"/>
+      <c r="I649" s="9"/>
+      <c r="J649" s="11"/>
+      <c r="K649" s="20"/>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A650" s="65"/>
+      <c r="B650" s="15"/>
+      <c r="C650" s="40"/>
+      <c r="D650" s="41"/>
+      <c r="E650" s="51"/>
+      <c r="F650" s="15"/>
+      <c r="G650" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H650" s="41"/>
+      <c r="I650" s="51"/>
+      <c r="J650" s="12"/>
+      <c r="K650" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18483,7 +18765,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>223.98099999999994</v>
+        <v>222.48099999999994</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
